--- a/Homework/1016.xlsx
+++ b/Homework/1016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B102206-0003-42A7-8316-74716B83FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE83A663-990D-4205-95BF-78D3B3A30FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>P values</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Integrals</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>Tc (K)</t>
+  </si>
+  <si>
+    <t>Pc (bar)</t>
+  </si>
+  <si>
+    <t>omega</t>
   </si>
 </sst>
 </file>
@@ -555,19 +567,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -651,6 +651,355 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C714-48D8-8E09-7083644A2DD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>General Correlations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98604088741507845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97227663165431544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95870451268936452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94532184846106138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93212599434940735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91911434265095204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9062843220634712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89363339717783796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88115906797698662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86885886934187129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85673037056432044</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84477117486669162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83297891892823106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82135127241804562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80988593753459359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79858064855160349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78743317137033197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77644130307807169</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76560287151282169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75491573483403496</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74437778109935782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73398692784727793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72374112168559712</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71363833788565045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70367657998218835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69385387937884446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68416829495911058</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67461791270274252</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66520084530752022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65591523181628764</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64675923724919915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63773105224109961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62882889268396558</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6200509993743385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61139563766567906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6028610971255739</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59444569119772872</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58614775686867815</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57796565433914904</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56989776670001102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56194249961275022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5540982809944035</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54636356070689129</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53873681025068521</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5312165224627543</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52380121121872625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.51648941113920577</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50927967730019374</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50217058494754785</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4951607292154292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B947-4DF7-81A8-6C01B7435BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1042,19 +1391,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1138,6 +1475,355 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A251-4D6C-BC4B-5D0EFCF979EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>General Correlations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8604088741507852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.445532633086309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.761135380680937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.812873938442458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.606299717470364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.146860559057124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.439902544442987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.490671774227039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.304316117928792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.885886934187127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.240340762075249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.372540984003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.28725946067004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114.98917813852638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121.48289063018903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127.77290376825655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133.86363913295642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139.75943455405292</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145.46454558743613</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.983146966807</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.31933403086515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>161.47712412640115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166.46045798768733</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>171.27320109255612</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175.9191449955471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180.40200863849955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>184.72543963895987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.89301555676789</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>192.90824513918085</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>196.7745695448863</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200.49536354725174</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>204.07393671715187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>207.51353458570864</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210.8173397872751</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>213.98847318298766</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>217.02999496520661</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>219.94490574315964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>222.7361476100977</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>225.40660519226813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>227.9591066800044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>230.3964248412276</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>232.72127801764947</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>234.93633110396325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>237.0441965103015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>239.04743510823943</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240.94855716061409</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>242.75002323542671</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>244.45424510409299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246.06358662429844</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>247.58036460771459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94D9-458B-97C7-DC086A0D6D10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3149,16 +3835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3185,14 +3871,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
@@ -3217,6 +3903,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9FA72D-267B-0551-4CAD-E6613232BB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857501" y="3466307"/>
+          <a:ext cx="2381250" cy="657977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3485,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G16"/>
+  <dimension ref="A3:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,6 +4542,759 @@
         <v>315.5839603901702</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>150+273.15</f>
+        <v>423.15</v>
+      </c>
+      <c r="B20">
+        <v>304.2</v>
+      </c>
+      <c r="C20">
+        <v>73.83</v>
+      </c>
+      <c r="D20">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>EXP((A23/$C$20)/($A$20/$B$20)*((0.083-0.422/($A$20/$B$20)^1.6)+$D$20*(0.139-0.172/($A$20/$B$20)^4.2)))</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>B23*A23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:A55" si="4">A23+10</f>
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B73" si="5">EXP((A24/$C$20)/($A$20/$B$20)*((0.083-0.422/($A$20/$B$20)^1.6)+$D$20*(0.139-0.172/($A$20/$B$20)^4.2)))</f>
+        <v>0.98604088741507845</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C73" si="6">B24*A24</f>
+        <v>9.8604088741507852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>0.97227663165431544</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>19.445532633086309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>0.95870451268936452</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="6"/>
+        <v>28.761135380680937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>0.94532184846106138</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>37.812873938442458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>0.93212599434940735</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>46.606299717470364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>0.91911434265095204</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>55.146860559057124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>0.9062843220634712</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>63.439902544442987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>0.89363339717783796</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>71.490671774227039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>0.88115906797698662</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>79.304316117928792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>0.86885886934187129</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>86.885886934187127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>0.85673037056432044</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>94.240340762075249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>0.84477117486669162</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>101.372540984003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>0.83297891892823106</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>108.28725946067004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>0.82135127241804562</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>114.98917813852638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>0.80988593753459359</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>121.48289063018903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>0.79858064855160349</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="6"/>
+        <v>127.77290376825655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>0.78743317137033197</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>133.86363913295642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>0.77644130307807169</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>139.75943455405292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>0.76560287151282169</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>145.46454558743613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>0.75491573483403496</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="6"/>
+        <v>150.983146966807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>0.74437778109935782</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="6"/>
+        <v>156.31933403086515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>0.73398692784727793</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="6"/>
+        <v>161.47712412640115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>0.72374112168559712</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>166.46045798768733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="5"/>
+        <v>0.71363833788565045</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>171.27320109255612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="5"/>
+        <v>0.70367657998218835</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>175.9191449955471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>0.69385387937884446</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>180.40200863849955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="5"/>
+        <v>0.68416829495911058</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="6"/>
+        <v>184.72543963895987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>0.67461791270274252</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="6"/>
+        <v>188.89301555676789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>0.66520084530752022</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="6"/>
+        <v>192.90824513918085</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>0.65591523181628764</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="6"/>
+        <v>196.7745695448863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>0.64675923724919915</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="6"/>
+        <v>200.49536354725174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>0.63773105224109961</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="6"/>
+        <v>204.07393671715187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ref="A56:A73" si="7">A55+10</f>
+        <v>330</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>0.62882889268396558</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="6"/>
+        <v>207.51353458570864</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>0.6200509993743385</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>210.8173397872751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>0.61139563766567906</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>213.98847318298766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>0.6028610971255739</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>217.02999496520661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="7"/>
+        <v>370</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>0.59444569119772872</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="6"/>
+        <v>219.94490574315964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>0.58614775686867815</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="6"/>
+        <v>222.7361476100977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>0.57796565433914904</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="6"/>
+        <v>225.40660519226813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>0.56989776670001102</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="6"/>
+        <v>227.9591066800044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>0.56194249961275022</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="6"/>
+        <v>230.3964248412276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>0.5540982809944035</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="6"/>
+        <v>232.72127801764947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="7"/>
+        <v>430</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>0.54636356070689129</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="6"/>
+        <v>234.93633110396325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>0.53873681025068521</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>237.0441965103015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>0.5312165224627543</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>239.04743510823943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>0.52380121121872625</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>240.94855716061409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>0.51648941113920577</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>242.75002323542671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>0.50927967730019374</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>244.45424510409299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>0.50217058494754785</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>246.06358662429844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>0.4951607292154292</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>247.58036460771459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
